--- a/IRR_ols6.xlsx
+++ b/IRR_ols6.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,22 +20,28 @@
     <t xml:space="preserve">(Intercept)</t>
   </si>
   <si>
-    <t xml:space="preserve">poly(LFund_GeoHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_GeoHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_StageHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_StageHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_PIGHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_PIGHHI, 2)2</t>
+    <t xml:space="preserve">poly(T_G, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(T_G, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(T_S, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(T_S, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(T_I, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(T_I, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operating_Years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal_Size</t>
   </si>
   <si>
     <t xml:space="preserve">as.factor(Deal_Year)1981</t>
@@ -155,97 +161,115 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.349 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.452 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.385 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.464 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.441 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.385 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.415 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.363 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.364 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.348 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.427 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.400 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.383 *</t>
+    <t xml:space="preserve">-0.468 **</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.425 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004 **</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.414 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.310 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.395 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.346 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.374 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.334 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.320 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.406 **</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.385 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.405 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.365 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.350 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.369 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.155)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.188)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.225)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.194)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.183)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.239)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.212)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.218)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.189)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.164)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.162)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.161)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.158)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.159)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.157)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.156)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.172)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.185)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.192)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.191)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.184)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.208)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.178)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.242)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.210)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.182)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.180)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.179)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.175)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.177)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.176)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.174)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.173)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.188)</t>
+    <t xml:space="preserve">(0.169)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.165)</t>
   </si>
   <si>
     <t xml:space="preserve">     </t>
@@ -255,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="82">
+  <numFmts count="86">
     <numFmt numFmtId="50000" formatCode="0.000"/>
     <numFmt numFmtId="50001" formatCode="0.000"/>
     <numFmt numFmtId="50002" formatCode="0.000"/>
@@ -338,6 +362,10 @@
     <numFmt numFmtId="50079" formatCode="0.000"/>
     <numFmt numFmtId="50080" formatCode="0.000"/>
     <numFmt numFmtId="50081" formatCode="0.000"/>
+    <numFmt numFmtId="50082" formatCode="0.000"/>
+    <numFmt numFmtId="50083" formatCode="0.000"/>
+    <numFmt numFmtId="50084" formatCode="0.000"/>
+    <numFmt numFmtId="50085" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -443,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top"/>
@@ -574,28 +602,28 @@
     <xf numFmtId="50037" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50038" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50038" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50039" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50040" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50039" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50040" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="50041" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50042" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50042" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50043" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50044" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50044" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50045" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -706,7 +734,19 @@
     <xf numFmtId="50080" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50081" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50081" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50082" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50083" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50084" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50085" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1013,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="5"/>
     </row>
@@ -1022,10 +1062,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>60</v>
+        <v>49</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -1033,10 +1073,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="C3" s="51" t="s">
-        <v>61</v>
+        <v>0.314</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -1044,10 +1084,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>0.212</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>62</v>
+        <v>0.03</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1055,54 +1095,54 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="n">
-        <v>-0.198</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>63</v>
+        <v>-0.067</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>64</v>
+      <c r="B6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>65</v>
+      <c r="B7" s="11" t="n">
+        <v>-0.092</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>66</v>
+      <c r="B8" s="12" t="n">
+        <v>-0.324</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="n">
-        <v>-0.265</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>67</v>
+      <c r="B9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -1110,10 +1150,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="n">
-        <v>-0.335</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>68</v>
+        <v>0</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -1121,10 +1161,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="n">
-        <v>-0.385</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>68</v>
+        <v>-0.253</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12">
@@ -1132,21 +1172,21 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="n">
-        <v>-0.331</v>
-      </c>
-      <c r="C12" s="60" t="s">
-        <v>68</v>
+        <v>-0.295</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="61" t="s">
-        <v>68</v>
+      <c r="B13" s="17" t="n">
+        <v>-0.339</v>
+      </c>
+      <c r="C13" s="63" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -1154,21 +1194,21 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>-0.348</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>67</v>
+        <v>-0.314</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="19" t="n">
-        <v>-0.311</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>69</v>
+      <c r="B15" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -1176,10 +1216,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="n">
-        <v>-0.32</v>
-      </c>
-      <c r="C16" s="64" t="s">
-        <v>70</v>
+        <v>-0.329</v>
+      </c>
+      <c r="C16" s="66" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="17">
@@ -1187,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="21" t="n">
-        <v>-0.306</v>
-      </c>
-      <c r="C17" s="65" t="s">
-        <v>66</v>
+        <v>-0.272</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18">
@@ -1198,10 +1238,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="n">
-        <v>-0.247</v>
-      </c>
-      <c r="C18" s="66" t="s">
-        <v>71</v>
+        <v>-0.283</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="19">
@@ -1209,10 +1249,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="n">
-        <v>-0.317</v>
-      </c>
-      <c r="C19" s="67" t="s">
-        <v>72</v>
+        <v>-0.276</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="20">
@@ -1220,10 +1260,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="n">
-        <v>-0.295</v>
-      </c>
-      <c r="C20" s="68" t="s">
-        <v>73</v>
+        <v>-0.217</v>
+      </c>
+      <c r="C20" s="70" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="21">
@@ -1231,10 +1271,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="25" t="n">
-        <v>-0.271</v>
-      </c>
-      <c r="C21" s="69" t="s">
-        <v>74</v>
+        <v>-0.288</v>
+      </c>
+      <c r="C21" s="71" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="22">
@@ -1244,8 +1284,8 @@
       <c r="B22" s="26" t="n">
         <v>-0.26</v>
       </c>
-      <c r="C22" s="70" t="s">
-        <v>72</v>
+      <c r="C22" s="72" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="23">
@@ -1253,10 +1293,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="27" t="n">
-        <v>-0.287</v>
-      </c>
-      <c r="C23" s="71" t="s">
-        <v>72</v>
+        <v>-0.249</v>
+      </c>
+      <c r="C23" s="73" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="24">
@@ -1264,10 +1304,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="28" t="n">
-        <v>-0.333</v>
-      </c>
-      <c r="C24" s="72" t="s">
-        <v>75</v>
+        <v>-0.24</v>
+      </c>
+      <c r="C24" s="74" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="25">
@@ -1275,21 +1315,21 @@
         <v>24</v>
       </c>
       <c r="B25" s="29" t="n">
-        <v>-0.31</v>
-      </c>
-      <c r="C25" s="73" t="s">
-        <v>76</v>
+        <v>-0.27</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="30" t="n">
-        <v>-0.283</v>
-      </c>
-      <c r="C26" s="74" t="s">
-        <v>76</v>
+      <c r="B26" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="76" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="27">
@@ -1297,32 +1337,32 @@
         <v>26</v>
       </c>
       <c r="B27" s="31" t="n">
-        <v>-0.325</v>
-      </c>
-      <c r="C27" s="75" t="s">
-        <v>60</v>
+        <v>-0.283</v>
+      </c>
+      <c r="C27" s="77" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="76" t="s">
-        <v>60</v>
+      <c r="B28" s="32" t="n">
+        <v>-0.258</v>
+      </c>
+      <c r="C28" s="78" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="77" t="s">
-        <v>76</v>
+      <c r="B29" s="33" t="n">
+        <v>-0.299</v>
+      </c>
+      <c r="C29" s="79" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="30">
@@ -1330,10 +1370,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="78" t="s">
-        <v>76</v>
+        <v>54</v>
+      </c>
+      <c r="C30" s="80" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="31">
@@ -1341,10 +1381,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="79" t="s">
-        <v>75</v>
+        <v>55</v>
+      </c>
+      <c r="C31" s="81" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="32">
@@ -1352,10 +1392,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="80" t="s">
-        <v>76</v>
+        <v>56</v>
+      </c>
+      <c r="C32" s="82" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="33">
@@ -1363,10 +1403,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="81" t="s">
-        <v>74</v>
+        <v>57</v>
+      </c>
+      <c r="C33" s="83" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="34">
@@ -1376,8 +1416,8 @@
       <c r="B34" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="82" t="s">
-        <v>72</v>
+      <c r="C34" s="84" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="35">
@@ -1387,8 +1427,8 @@
       <c r="B35" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="83" t="s">
-        <v>74</v>
+      <c r="C35" s="85" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="36">
@@ -1396,10 +1436,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="84" t="s">
-        <v>71</v>
+        <v>59</v>
+      </c>
+      <c r="C36" s="86" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="37">
@@ -1407,31 +1447,31 @@
         <v>36</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="85" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="C37" s="87" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="42" t="n">
-        <v>-0.347</v>
-      </c>
-      <c r="C38" s="86" t="s">
-        <v>62</v>
+      <c r="B38" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="88" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="43" t="n">
-        <v>-0.367</v>
-      </c>
-      <c r="C39" s="87" t="s">
+      <c r="B39" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="89" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1439,22 +1479,22 @@
       <c r="A40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="44" t="n">
-        <v>-0.29</v>
-      </c>
-      <c r="C40" s="88" t="s">
-        <v>64</v>
+      <c r="B40" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C40" s="90" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="45" t="n">
-        <v>910</v>
-      </c>
-      <c r="C41" s="89" t="s">
-        <v>78</v>
+      <c r="B41" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="91" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="42">
@@ -1462,10 +1502,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="46" t="n">
-        <v>0.131</v>
-      </c>
-      <c r="C42" s="89" t="s">
-        <v>78</v>
+        <v>-0.297</v>
+      </c>
+      <c r="C42" s="92" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="43">
@@ -1473,10 +1513,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="47" t="n">
-        <v>0.093</v>
-      </c>
-      <c r="C43" s="89" t="s">
-        <v>78</v>
+        <v>910</v>
+      </c>
+      <c r="C43" s="93" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="44">
@@ -1484,33 +1524,55 @@
         <v>43</v>
       </c>
       <c r="B44" s="48" t="n">
-        <v>3.465</v>
-      </c>
-      <c r="C44" s="89" t="s">
-        <v>78</v>
+        <v>0.139</v>
+      </c>
+      <c r="C44" s="93" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="49" t="n">
+        <v>0.099</v>
+      </c>
+      <c r="C45" s="93" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="50" t="n">
+        <v>3.502</v>
+      </c>
+      <c r="C46" s="93" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="51" t="n">
         <v>0</v>
       </c>
-      <c r="C45" s="90" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+      <c r="C47" s="94" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A48:C48"/>
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
